--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -262,7 +262,7 @@
     <t>FirFlaSh</t>
   </si>
   <si>
-    <t>Dernière update le 01.03.25 à 14:15</t>
+    <t>Dernière update le 01.03.25 à 14:17</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="12">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>11</v>
@@ -1252,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>23</v>
@@ -1274,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="15">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
@@ -1301,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="14">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="30">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>11</v>
@@ -1800,7 +1800,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>27</v>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -43,226 +43,226 @@
     <t>31.</t>
   </si>
   <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Lookoomcitron</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>Framex74</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>RazerHus</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Xtrem_lalaniix</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Riivinho</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>PyroxX59</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>ShinLeGoat</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>RevengeGoon</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
     <t>joueurwooki</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>Lookoomcitron</t>
-  </si>
-  <si>
-    <t>32.</t>
-  </si>
-  <si>
-    <t>Framex74</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>33.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
-  </si>
-  <si>
-    <t>34.</t>
-  </si>
-  <si>
-    <t>RazerHus</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Xtrem_lalaniix</t>
-  </si>
-  <si>
-    <t>35.</t>
-  </si>
-  <si>
-    <t>Riivinho</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
-    <t>36.</t>
-  </si>
-  <si>
-    <t>buderacing</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>37.</t>
-  </si>
-  <si>
-    <t>ShinLeGoat</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>28.</t>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>oluvilis</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Solveurk</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>Lenny_san</t>
   </si>
   <si>
-    <t>38.</t>
-  </si>
-  <si>
-    <t>RevengeGoon</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>39.</t>
-  </si>
-  <si>
-    <t>oluvilis</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Solveurk</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>PyroxX59</t>
-  </si>
-  <si>
     <t>40.</t>
   </si>
   <si>
     <t>FirFlaSh</t>
   </si>
   <si>
-    <t>Dernière update le 01.03.25 à 14:17</t>
+    <t>Dernière update le 01.03.25 à 15:13</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -1234,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="19">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1243,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -1274,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="15">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
@@ -1301,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="14">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1394,7 +1394,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="8">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
@@ -1403,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>53</v>
@@ -1412,7 +1412,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>55</v>
@@ -1435,7 +1435,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="15">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>59</v>
@@ -1453,7 +1453,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="15">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>63</v>
@@ -1475,7 +1475,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="8">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
@@ -1493,7 +1493,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>71</v>
@@ -1533,7 +1533,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="15">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>79</v>
@@ -1680,13 +1680,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="25">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G3" s="28">
         <v>15</v>
@@ -1744,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M4" s="32">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="35">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>19</v>
@@ -1800,7 +1800,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="33">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>27</v>
@@ -1917,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="28">
         <v>26</v>
@@ -1958,10 +1958,10 @@
         <v>57</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10" s="33">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>3</v>
@@ -2255,7 +2255,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>13</v>
@@ -2372,7 +2372,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G7" s="43">
         <v>9</v>
@@ -2390,7 +2390,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M7" s="42">
         <v>2</v>
@@ -2406,7 +2406,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>43</v>
@@ -2443,10 +2443,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D9" s="43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>51</v>
@@ -2484,7 +2484,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D10" s="47">
         <v>16</v>
@@ -2502,7 +2502,7 @@
         <v>61</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J10" s="47">
         <v>3</v>
@@ -2573,7 +2573,7 @@
         <v>75</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="G12" s="47">
         <v>5</v>
@@ -2582,7 +2582,7 @@
         <v>77</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="J12" s="47">
         <v>3</v>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
   <si>
     <t>Qui a attrapé le plus de Pokémon ?</t>
   </si>
@@ -31,238 +31,238 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Lenny_san</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>ShinLeGoat</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Solveurk</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>Riivinho</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>RazerHus</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Framex74</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>joueurwooki</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>Zelderos</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Lookoomcitron</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>PyroxX59</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>bspkrs_</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Xtrem_lalaniix</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
     <t>Methyril</t>
   </si>
   <si>
-    <t>21.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>31.</t>
-  </si>
-  <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>Lookoomcitron</t>
-  </si>
-  <si>
-    <t>32.</t>
-  </si>
-  <si>
-    <t>Framex74</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>33.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
-  </si>
-  <si>
-    <t>34.</t>
-  </si>
-  <si>
-    <t>RazerHus</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Xtrem_lalaniix</t>
-  </si>
-  <si>
-    <t>35.</t>
-  </si>
-  <si>
-    <t>Riivinho</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>26.</t>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>AceCertix</t>
   </si>
   <si>
-    <t>36.</t>
-  </si>
-  <si>
-    <t>buderacing</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>PyroxX59</t>
-  </si>
-  <si>
-    <t>37.</t>
-  </si>
-  <si>
-    <t>ShinLeGoat</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>38.</t>
+    <t>40.</t>
   </si>
   <si>
     <t>RevengeGoon</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>joueurwooki</t>
-  </si>
-  <si>
-    <t>39.</t>
-  </si>
-  <si>
-    <t>oluvilis</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Solveurk</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>Lenny_san</t>
-  </si>
-  <si>
-    <t>40.</t>
-  </si>
-  <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
-    <t>Dernière update le 01.03.25 à 15:13</t>
+    <t>Dernière update le 02.03.25 à 14:53</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -294,34 +294,31 @@
     </r>
   </si>
   <si>
+    <t>Balhgar</t>
+  </si>
+  <si>
     <t>Mamazou</t>
   </si>
   <si>
+    <t>oluvilis</t>
+  </si>
+  <si>
+    <t>Arpegiuss</t>
+  </si>
+  <si>
     <t>Ultimanas75</t>
   </si>
   <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
     <t>AxoliaTV</t>
   </si>
   <si>
-    <t>AlkaciD</t>
-  </si>
-  <si>
     <t>Pyrocika</t>
   </si>
   <si>
-    <t>StyKiuN</t>
-  </si>
-  <si>
-    <t>aLMenzia</t>
-  </si>
-  <si>
-    <t>Balhgar</t>
-  </si>
-  <si>
-    <t>Dilag</t>
+    <t>FirFlaSh</t>
+  </si>
+  <si>
+    <t>Bixtouzz</t>
   </si>
   <si>
     <t>Shiny Pokemons Leaderboard</t>
@@ -362,10 +359,10 @@
     </r>
   </si>
   <si>
-    <t>bspkrs_</t>
-  </si>
-  <si>
     <t>ORSgodtoupheur</t>
+  </si>
+  <si>
+    <t>azrox2903</t>
   </si>
   <si>
     <t>Teubish</t>
@@ -1154,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1163,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="8">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
@@ -1172,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="8">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
@@ -1181,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -1194,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="12">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>11</v>
@@ -1203,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="15">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
@@ -1212,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="15">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>15</v>
@@ -1221,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="14">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -1234,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="19">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1243,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -1252,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="8">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>23</v>
@@ -1261,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1274,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="15">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
@@ -1283,7 +1280,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="15">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>29</v>
@@ -1292,7 +1289,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="15">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>31</v>
@@ -1301,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="14">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1314,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="8">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1323,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="8">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>37</v>
@@ -1332,7 +1329,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="8">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>39</v>
@@ -1341,7 +1338,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -1354,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="15">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>43</v>
@@ -1363,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1372,7 +1369,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="15">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>47</v>
@@ -1381,7 +1378,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="14">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -1394,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="8">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
@@ -1403,7 +1400,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="8">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>53</v>
@@ -1412,7 +1409,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="8">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>55</v>
@@ -1421,7 +1418,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="20"/>
@@ -1435,7 +1432,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="15">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>59</v>
@@ -1444,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="15">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>61</v>
@@ -1453,7 +1450,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="15">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>63</v>
@@ -1462,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="14">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -1475,7 +1472,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="8">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
@@ -1484,7 +1481,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>69</v>
@@ -1493,7 +1490,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="8">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>71</v>
@@ -1502,7 +1499,7 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -1515,7 +1512,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="15">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>75</v>
@@ -1524,7 +1521,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="15">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>77</v>
@@ -1533,7 +1530,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="15">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>79</v>
@@ -1542,7 +1539,7 @@
         <v>80</v>
       </c>
       <c r="M12" s="14">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -1680,22 +1677,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="25">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G3" s="28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J3" s="28">
         <v>4</v>
@@ -1704,10 +1701,10 @@
         <v>7</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="M3" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="23"/>
     </row>
@@ -1720,22 +1717,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="30">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="G4" s="33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J4" s="33">
         <v>3</v>
@@ -1744,10 +1741,10 @@
         <v>15</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M4" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="23"/>
     </row>
@@ -1760,22 +1757,22 @@
         <v>18</v>
       </c>
       <c r="D5" s="35">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G5" s="28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J5" s="28">
         <v>3</v>
@@ -1784,10 +1781,10 @@
         <v>23</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M5" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="23"/>
     </row>
@@ -1800,13 +1797,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="33">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G6" s="33">
         <v>14</v>
@@ -1815,10 +1812,10 @@
         <v>29</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J6" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>31</v>
@@ -1837,16 +1834,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" s="28">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G7" s="28">
         <v>8</v>
@@ -1855,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="J7" s="28">
         <v>2</v>
@@ -1864,7 +1861,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" s="27">
         <v>0</v>
@@ -1877,34 +1874,34 @@
         <v>41</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D8" s="33">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G8" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="J8" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M8" s="32">
         <v>0</v>
@@ -1920,16 +1917,16 @@
         <v>50</v>
       </c>
       <c r="D9" s="28">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="G9" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>53</v>
@@ -1961,13 +1958,13 @@
         <v>58</v>
       </c>
       <c r="D10" s="33">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G10" s="33">
         <v>6</v>
@@ -1985,7 +1982,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="M10" s="32">
         <v>0</v>
@@ -1998,10 +1995,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D11" s="28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>67</v>
@@ -2016,7 +2013,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J11" s="28">
         <v>1</v>
@@ -2025,7 +2022,7 @@
         <v>71</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="M11" s="27">
         <v>0</v>
@@ -2038,16 +2035,16 @@
         <v>73</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D12" s="33">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G12" s="33">
         <v>5</v>
@@ -2065,7 +2062,7 @@
         <v>79</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="M12" s="32">
         <v>0</v>
@@ -2093,7 +2090,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -2182,7 +2179,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -2206,34 +2203,34 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G3" s="43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="J3" s="43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="M3" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="39"/>
     </row>
@@ -2246,34 +2243,34 @@
         <v>10</v>
       </c>
       <c r="D4" s="12">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G4" s="47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J4" s="47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M4" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="39"/>
     </row>
@@ -2283,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D5" s="19">
         <v>30</v>
@@ -2292,28 +2289,28 @@
         <v>19</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" s="43">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J5" s="43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="39"/>
     </row>
@@ -2323,37 +2320,37 @@
         <v>25</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" s="47">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G6" s="47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J6" s="47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M6" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" s="39"/>
     </row>
@@ -2363,37 +2360,37 @@
         <v>33</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D7" s="43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="G7" s="43">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J7" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="M7" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="39"/>
     </row>
@@ -2403,7 +2400,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D8" s="47">
         <v>25</v>
@@ -2412,25 +2409,25 @@
         <v>43</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="G8" s="47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J8" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="M8" s="46">
         <v>2</v>
@@ -2443,25 +2440,25 @@
         <v>49</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="43">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G9" s="43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J9" s="43">
         <v>4</v>
@@ -2470,10 +2467,10 @@
         <v>55</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M9" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="39"/>
       <c r="Q9" s="20"/>
@@ -2484,37 +2481,37 @@
         <v>57</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D10" s="47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" s="47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="J10" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M10" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="39"/>
     </row>
@@ -2524,37 +2521,37 @@
         <v>65</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="43">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="G11" s="43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="J11" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M11" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="39"/>
     </row>
@@ -2564,19 +2561,19 @@
         <v>73</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G12" s="47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>77</v>
@@ -2585,16 +2582,16 @@
         <v>70</v>
       </c>
       <c r="J12" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M12" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="39"/>
     </row>
@@ -2619,7 +2616,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -2678,16 +2675,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -37,232 +37,232 @@
     <t>21.</t>
   </si>
   <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>ShinLeGoat</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>RazerHus</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>Xtrem_lalaniix</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Lookoomcitron</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
     <t>Lenny_san</t>
   </si>
   <si>
-    <t>31.</t>
-  </si>
-  <si>
-    <t>ShinLeGoat</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>22.</t>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
+    <t>25.</t>
   </si>
   <si>
     <t>Solveurk</t>
   </si>
   <si>
-    <t>32.</t>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>Framex74</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>bspkrs_</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>PyroxX59</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Methyril</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>joueurwooki</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Zelderos</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>Riivinho</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>33.</t>
-  </si>
-  <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>34.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>RazerHus</t>
-  </si>
-  <si>
-    <t>35.</t>
-  </si>
-  <si>
-    <t>Framex74</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>36.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>joueurwooki</t>
-  </si>
-  <si>
-    <t>37.</t>
-  </si>
-  <si>
-    <t>Zelderos</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Lookoomcitron</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>PyroxX59</t>
-  </si>
-  <si>
-    <t>38.</t>
-  </si>
-  <si>
-    <t>bspkrs_</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>Xtrem_lalaniix</t>
-  </si>
-  <si>
-    <t>39.</t>
-  </si>
-  <si>
-    <t>buderacing</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Methyril</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
     <t>40.</t>
   </si>
   <si>
     <t>RevengeGoon</t>
   </si>
   <si>
-    <t>Dernière update le 02.03.25 à 14:53</t>
+    <t>Dernière update le 03.03.25 à 12:48</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -359,10 +359,10 @@
     </r>
   </si>
   <si>
+    <t>azrox2903</t>
+  </si>
+  <si>
     <t>ORSgodtoupheur</t>
-  </si>
-  <si>
-    <t>azrox2903</t>
   </si>
   <si>
     <t>Teubish</t>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="8">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
@@ -1169,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="8">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="12">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>11</v>
@@ -1200,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="15">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
@@ -1209,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="15">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>15</v>
@@ -1218,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="14">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="19">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1240,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -1249,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="8">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>23</v>
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="15">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
@@ -1280,7 +1280,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="15">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>29</v>
@@ -1289,7 +1289,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="15">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>31</v>
@@ -1311,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="8">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1320,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="8">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>37</v>
@@ -1329,7 +1329,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="8">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>39</v>
@@ -1338,7 +1338,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -1351,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="15">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>43</v>
@@ -1360,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1369,7 +1369,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="15">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>47</v>
@@ -1378,7 +1378,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="14">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -1391,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="8">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
@@ -1400,7 +1400,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="8">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>53</v>
@@ -1409,7 +1409,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="8">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>55</v>
@@ -1418,7 +1418,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="20"/>
@@ -1432,7 +1432,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="15">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>59</v>
@@ -1441,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="15">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>61</v>
@@ -1450,7 +1450,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="15">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>63</v>
@@ -1459,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="14">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -1472,7 +1472,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="8">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
@@ -1481,7 +1481,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>69</v>
@@ -1490,7 +1490,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="8">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>71</v>
@@ -1512,7 +1512,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="15">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>75</v>
@@ -1521,7 +1521,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="15">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>77</v>
@@ -1530,7 +1530,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="15">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>79</v>
@@ -1677,22 +1677,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="25">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" s="28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J3" s="28">
         <v>4</v>
@@ -1701,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M3" s="27">
         <v>1</v>
@@ -1717,16 +1717,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="30">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G4" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>13</v>
@@ -1757,13 +1757,13 @@
         <v>18</v>
       </c>
       <c r="D5" s="35">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G5" s="28">
         <v>17</v>
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="J5" s="28">
         <v>3</v>
@@ -1781,7 +1781,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M5" s="27">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" s="33">
         <v>52</v>
@@ -1803,7 +1803,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G6" s="33">
         <v>14</v>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J6" s="33">
         <v>3</v>
@@ -1834,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="28">
         <v>50</v>
@@ -1843,10 +1843,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G7" s="28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>37</v>
@@ -1861,7 +1861,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M7" s="27">
         <v>0</v>
@@ -1874,25 +1874,25 @@
         <v>41</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" s="33">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G8" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J8" s="33">
         <v>2</v>
@@ -1901,7 +1901,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M8" s="32">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" s="28">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>51</v>
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D10" s="33">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G10" s="33">
         <v>6</v>
@@ -1982,7 +1982,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M10" s="32">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G11" s="28">
         <v>5</v>
@@ -2022,7 +2022,7 @@
         <v>71</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M11" s="27">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" s="33">
         <v>26</v>
@@ -2062,7 +2062,7 @@
         <v>79</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M12" s="32">
         <v>0</v>
@@ -2209,25 +2209,25 @@
         <v>3</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G3" s="43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J3" s="43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M3" s="42">
         <v>4</v>
@@ -2249,25 +2249,25 @@
         <v>11</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G4" s="47">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J4" s="47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="M4" s="46">
         <v>4</v>
@@ -2280,25 +2280,25 @@
         <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D5" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G5" s="43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="J5" s="43">
         <v>7</v>
@@ -2307,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="M5" s="42">
         <v>4</v>
@@ -2320,34 +2320,34 @@
         <v>25</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D6" s="47">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G6" s="47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J6" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M6" s="46">
         <v>4</v>
@@ -2360,16 +2360,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D7" s="43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G7" s="43">
         <v>14</v>
@@ -2378,19 +2378,19 @@
         <v>37</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J7" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M7" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="39"/>
     </row>
@@ -2400,37 +2400,37 @@
         <v>41</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D8" s="47">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G8" s="47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J8" s="47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M8" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="39"/>
     </row>
@@ -2440,16 +2440,16 @@
         <v>49</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D9" s="43">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G9" s="43">
         <v>11</v>
@@ -2458,16 +2458,16 @@
         <v>53</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J9" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="44" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M9" s="42">
         <v>2</v>
@@ -2481,16 +2481,16 @@
         <v>57</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D10" s="47">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G10" s="47">
         <v>9</v>
@@ -2499,16 +2499,16 @@
         <v>61</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J10" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M10" s="46">
         <v>2</v>
@@ -2521,7 +2521,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" s="43">
         <v>17</v>
@@ -2530,7 +2530,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G11" s="43">
         <v>9</v>
@@ -2539,7 +2539,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J11" s="43">
         <v>4</v>
@@ -2548,7 +2548,7 @@
         <v>71</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M11" s="42">
         <v>2</v>
@@ -2561,16 +2561,16 @@
         <v>73</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D12" s="47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G12" s="47">
         <v>8</v>
@@ -2579,7 +2579,7 @@
         <v>77</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J12" s="47">
         <v>4</v>
@@ -2588,7 +2588,7 @@
         <v>79</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M12" s="46">
         <v>2</v>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
   <si>
     <t>Qui a attrapé le plus de Pokémon ?</t>
   </si>
@@ -31,238 +31,238 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Lookoomcitron</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
     <t>Azufinn</t>
   </si>
   <si>
-    <t>21.</t>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>RazerHus</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Solveurk</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>bspkrs_</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>joueurwooki</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Riivinho</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>ShinLeGoat</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>15.</t>
   </si>
   <si>
     <t>SyKape</t>
   </si>
   <si>
-    <t>31.</t>
-  </si>
-  <si>
-    <t>ShinLeGoat</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>RazerHus</t>
-  </si>
-  <si>
-    <t>32.</t>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>36.</t>
   </si>
   <si>
     <t>Xtrem_lalaniix</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Lookoomcitron</t>
-  </si>
-  <si>
-    <t>23.</t>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>27.</t>
   </si>
   <si>
     <t>Lenny_san</t>
   </si>
   <si>
-    <t>33.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>34.</t>
+    <t>37.</t>
   </si>
   <si>
     <t>De_Oceane</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Solveurk</t>
-  </si>
-  <si>
-    <t>35.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>16.</t>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Methyril</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Theirastria</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>PyroxX59</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>KcNailik</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>19.</t>
   </si>
   <si>
     <t>Adri3n76</t>
   </si>
   <si>
-    <t>26.</t>
+    <t>29.</t>
   </si>
   <si>
     <t>FunBass</t>
   </si>
   <si>
-    <t>36.</t>
+    <t>39.</t>
   </si>
   <si>
     <t>Framex74</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>17.</t>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>20.</t>
   </si>
   <si>
     <t>Bazouho</t>
   </si>
   <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>37.</t>
-  </si>
-  <si>
-    <t>bspkrs_</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>PyroxX59</t>
-  </si>
-  <si>
-    <t>38.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Methyril</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>joueurwooki</t>
-  </si>
-  <si>
-    <t>29.</t>
+    <t>30.</t>
   </si>
   <si>
     <t>Zelderos</t>
   </si>
   <si>
-    <t>39.</t>
-  </si>
-  <si>
-    <t>buderacing</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>Riivinho</t>
-  </si>
-  <si>
     <t>40.</t>
   </si>
   <si>
-    <t>RevengeGoon</t>
-  </si>
-  <si>
-    <t>Dernière update le 03.03.25 à 12:48</t>
+    <t>Lixael</t>
+  </si>
+  <si>
+    <t>Dernière update le 04.03.25 à 20:53</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -294,6 +294,21 @@
     </r>
   </si>
   <si>
+    <t>Arpegiuss</t>
+  </si>
+  <si>
+    <t>FirFlaSh</t>
+  </si>
+  <si>
+    <t>AxoliaTV</t>
+  </si>
+  <si>
+    <t>Pyrocika</t>
+  </si>
+  <si>
+    <t>Bixtouzz</t>
+  </si>
+  <si>
     <t>Balhgar</t>
   </si>
   <si>
@@ -303,22 +318,10 @@
     <t>oluvilis</t>
   </si>
   <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
-    <t>Ultimanas75</t>
-  </si>
-  <si>
-    <t>AxoliaTV</t>
-  </si>
-  <si>
-    <t>Pyrocika</t>
-  </si>
-  <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
-    <t>Bixtouzz</t>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>Ezequio</t>
   </si>
   <si>
     <t>Shiny Pokemons Leaderboard</t>
@@ -1151,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1160,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="8">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
@@ -1169,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="8">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
@@ -1178,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -1191,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="12">
-        <v>768</v>
+        <v>816</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>11</v>
@@ -1200,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="15">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
@@ -1209,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="15">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>15</v>
@@ -1218,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="14">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -1231,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="19">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1240,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -1249,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="8">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>23</v>
@@ -1258,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1271,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="15">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
@@ -1280,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="15">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>29</v>
@@ -1289,7 +1292,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="15">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>31</v>
@@ -1298,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="14">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1311,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="8">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1320,7 +1323,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="8">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>37</v>
@@ -1329,7 +1332,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="8">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>39</v>
@@ -1338,7 +1341,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -1351,7 +1354,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="15">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>43</v>
@@ -1360,7 +1363,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1369,7 +1372,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="15">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>47</v>
@@ -1378,7 +1381,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="14">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -1391,7 +1394,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="8">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
@@ -1400,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="8">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>53</v>
@@ -1409,7 +1412,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="8">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>55</v>
@@ -1418,7 +1421,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="20"/>
@@ -1432,7 +1435,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="15">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>59</v>
@@ -1441,7 +1444,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="15">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>61</v>
@@ -1450,7 +1453,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="15">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>63</v>
@@ -1459,7 +1462,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="14">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -1472,7 +1475,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="8">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
@@ -1481,7 +1484,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>69</v>
@@ -1490,7 +1493,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="8">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>71</v>
@@ -1499,7 +1502,7 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -1512,7 +1515,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="15">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>75</v>
@@ -1521,7 +1524,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="15">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>77</v>
@@ -1530,7 +1533,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="15">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>79</v>
@@ -1539,7 +1542,7 @@
         <v>80</v>
       </c>
       <c r="M12" s="14">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -1677,34 +1680,34 @@
         <v>2</v>
       </c>
       <c r="D3" s="25">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G3" s="28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J3" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M3" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="23"/>
     </row>
@@ -1717,25 +1720,25 @@
         <v>10</v>
       </c>
       <c r="D4" s="30">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G4" s="33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="J4" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>15</v>
@@ -1757,31 +1760,31 @@
         <v>18</v>
       </c>
       <c r="D5" s="35">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G5" s="28">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="J5" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="M5" s="27">
         <v>1</v>
@@ -1797,34 +1800,34 @@
         <v>34</v>
       </c>
       <c r="D6" s="33">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="G6" s="33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J6" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M6" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="23"/>
     </row>
@@ -1834,37 +1837,37 @@
         <v>33</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D7" s="28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G7" s="28">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="J7" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M7" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="23"/>
     </row>
@@ -1874,37 +1877,37 @@
         <v>41</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D8" s="33">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G8" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="J8" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M8" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="23"/>
     </row>
@@ -1914,37 +1917,37 @@
         <v>49</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D9" s="28">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="G9" s="28">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J9" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M9" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="23"/>
       <c r="Q9" s="20"/>
@@ -1958,31 +1961,31 @@
         <v>42</v>
       </c>
       <c r="D10" s="33">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G10" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J10" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="M10" s="32">
         <v>0</v>
@@ -1995,34 +1998,34 @@
         <v>65</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" s="28">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G11" s="28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J11" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M11" s="27">
         <v>0</v>
@@ -2038,31 +2041,31 @@
         <v>74</v>
       </c>
       <c r="D12" s="33">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G12" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>77</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J12" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="34" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M12" s="32">
         <v>0</v>
@@ -2090,7 +2093,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -2179,7 +2182,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -2200,19 +2203,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G3" s="43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>5</v>
@@ -2221,16 +2224,16 @@
         <v>70</v>
       </c>
       <c r="J3" s="43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M3" s="42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="39"/>
     </row>
@@ -2240,34 +2243,34 @@
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" s="12">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G4" s="47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J4" s="47">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="M4" s="46">
         <v>4</v>
@@ -2283,31 +2286,31 @@
         <v>26</v>
       </c>
       <c r="D5" s="19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G5" s="43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J5" s="43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="M5" s="42">
         <v>4</v>
@@ -2320,34 +2323,34 @@
         <v>25</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" s="47">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G6" s="47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J6" s="47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M6" s="46">
         <v>4</v>
@@ -2360,34 +2363,34 @@
         <v>33</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D7" s="43">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G7" s="43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="J7" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M7" s="42">
         <v>4</v>
@@ -2400,37 +2403,37 @@
         <v>41</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D8" s="47">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G8" s="47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="J8" s="47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M8" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="39"/>
     </row>
@@ -2440,37 +2443,37 @@
         <v>49</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D9" s="43">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G9" s="43">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="J9" s="43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K9" s="44" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M9" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" s="39"/>
       <c r="Q9" s="20"/>
@@ -2481,10 +2484,10 @@
         <v>57</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D10" s="47">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>59</v>
@@ -2493,25 +2496,25 @@
         <v>32</v>
       </c>
       <c r="G10" s="47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="J10" s="47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M10" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="39"/>
     </row>
@@ -2521,37 +2524,37 @@
         <v>65</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D11" s="43">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G11" s="43">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J11" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="M11" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="39"/>
     </row>
@@ -2561,34 +2564,34 @@
         <v>73</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D12" s="47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G12" s="47">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>77</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J12" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M12" s="46">
         <v>2</v>
@@ -2616,7 +2619,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -2675,16 +2678,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t>Qui a attrapé le plus de Pokémon ?</t>
   </si>
@@ -31,238 +31,238 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>Zelderos</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>RazerHus</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>bspkrs_</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>joueurwooki</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>KcNailik</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Solveurk</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Methyril</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>ShinLeGoat</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>Lenny_san</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>Lixael</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Theirastria</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>Xtrem_lalaniix</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
     <t>Lookoomcitron</t>
   </si>
   <si>
-    <t>21.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>31.</t>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>Riivinho</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>PyroxX59</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>NeoPreda</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>RazerHus</t>
-  </si>
-  <si>
-    <t>32.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>Solveurk</t>
-  </si>
-  <si>
-    <t>33.</t>
-  </si>
-  <si>
-    <t>bspkrs_</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>joueurwooki</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Riivinho</t>
-  </si>
-  <si>
-    <t>34.</t>
-  </si>
-  <si>
-    <t>ShinLeGoat</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>35.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>36.</t>
-  </si>
-  <si>
-    <t>Xtrem_lalaniix</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>Lenny_san</t>
-  </si>
-  <si>
-    <t>37.</t>
-  </si>
-  <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Methyril</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Theirastria</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>PyroxX59</t>
-  </si>
-  <si>
-    <t>38.</t>
-  </si>
-  <si>
-    <t>KcNailik</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>39.</t>
+    <t>40.</t>
   </si>
   <si>
     <t>Framex74</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>Zelderos</t>
-  </si>
-  <si>
-    <t>40.</t>
-  </si>
-  <si>
-    <t>Lixael</t>
-  </si>
-  <si>
-    <t>Dernière update le 04.03.25 à 20:53</t>
+    <t>Dernière update le 05.03.25 à 21:00</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -294,34 +294,25 @@
     </r>
   </si>
   <si>
+    <t>FirFlaSh</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
     <t>Arpegiuss</t>
   </si>
   <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
     <t>AxoliaTV</t>
   </si>
   <si>
+    <t>oluvilis</t>
+  </si>
+  <si>
+    <t>Ezequio</t>
+  </si>
+  <si>
     <t>Pyrocika</t>
-  </si>
-  <si>
-    <t>Bixtouzz</t>
-  </si>
-  <si>
-    <t>Balhgar</t>
-  </si>
-  <si>
-    <t>Mamazou</t>
-  </si>
-  <si>
-    <t>oluvilis</t>
-  </si>
-  <si>
-    <t>buderacing</t>
-  </si>
-  <si>
-    <t>Ezequio</t>
   </si>
   <si>
     <t>Shiny Pokemons Leaderboard</t>
@@ -362,13 +353,16 @@
     </r>
   </si>
   <si>
+    <t>Mamazou</t>
+  </si>
+  <si>
+    <t>Bixtouzz</t>
+  </si>
+  <si>
     <t>azrox2903</t>
   </si>
   <si>
     <t>ORSgodtoupheur</t>
-  </si>
-  <si>
-    <t>Teubish</t>
   </si>
   <si>
     <t>Legendary Captures Leaderboard</t>
@@ -1154,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1163,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="8">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
@@ -1172,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="8">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
@@ -1181,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -1194,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="12">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>11</v>
@@ -1203,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="15">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
@@ -1212,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="15">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>15</v>
@@ -1221,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="14">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -1234,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="19">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1243,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>21</v>
@@ -1252,7 +1246,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="8">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>23</v>
@@ -1261,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1274,7 +1268,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="15">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
@@ -1283,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="15">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>29</v>
@@ -1292,7 +1286,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="15">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>31</v>
@@ -1301,7 +1295,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="14">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1314,7 +1308,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="8">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1323,7 +1317,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="8">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>37</v>
@@ -1332,7 +1326,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="8">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>39</v>
@@ -1341,7 +1335,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -1363,7 +1357,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1372,7 +1366,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="15">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>47</v>
@@ -1381,7 +1375,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="14">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -1394,7 +1388,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="8">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
@@ -1412,7 +1406,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="8">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>55</v>
@@ -1421,7 +1415,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="20"/>
@@ -1435,7 +1429,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="15">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>59</v>
@@ -1444,7 +1438,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="15">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>61</v>
@@ -1453,7 +1447,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="15">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>63</v>
@@ -1462,7 +1456,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="14">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -1475,7 +1469,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="8">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
@@ -1484,7 +1478,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>69</v>
@@ -1493,7 +1487,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="8">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>71</v>
@@ -1502,7 +1496,7 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -1515,7 +1509,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="15">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>75</v>
@@ -1524,7 +1518,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="15">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>77</v>
@@ -1533,7 +1527,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="15">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>79</v>
@@ -1542,7 +1536,7 @@
         <v>80</v>
       </c>
       <c r="M12" s="14">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -1680,22 +1674,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="25">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G3" s="28">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J3" s="28">
         <v>6</v>
@@ -1704,10 +1698,10 @@
         <v>7</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M3" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="23"/>
     </row>
@@ -1720,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="30">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>11</v>
@@ -1729,25 +1723,25 @@
         <v>4</v>
       </c>
       <c r="G4" s="33">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J4" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M4" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="23"/>
     </row>
@@ -1766,28 +1760,28 @@
         <v>19</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G5" s="28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="J5" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M5" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="23"/>
     </row>
@@ -1797,37 +1791,37 @@
         <v>25</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D6" s="33">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G6" s="33">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J6" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="M6" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="23"/>
     </row>
@@ -1837,37 +1831,37 @@
         <v>33</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D7" s="28">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G7" s="28">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J7" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M7" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="23"/>
     </row>
@@ -1877,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8" s="33">
         <v>52</v>
@@ -1886,28 +1880,28 @@
         <v>43</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G8" s="33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="J8" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M8" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="23"/>
     </row>
@@ -1917,7 +1911,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="28">
         <v>50</v>
@@ -1926,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G9" s="28">
         <v>12</v>
@@ -1935,19 +1929,19 @@
         <v>53</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J9" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M9" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="23"/>
       <c r="Q9" s="20"/>
@@ -1958,7 +1952,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" s="33">
         <v>46</v>
@@ -1967,28 +1961,28 @@
         <v>59</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G10" s="33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J10" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="23"/>
     </row>
@@ -1998,37 +1992,37 @@
         <v>65</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D11" s="28">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G11" s="28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="J11" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M11" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="23"/>
     </row>
@@ -2038,37 +2032,37 @@
         <v>73</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D12" s="33">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G12" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>77</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J12" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="34" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M12" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="23"/>
     </row>
@@ -2093,7 +2087,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -2182,7 +2176,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -2206,22 +2200,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G3" s="43">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J3" s="43">
         <v>14</v>
@@ -2230,10 +2224,10 @@
         <v>7</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="M3" s="42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3" s="39"/>
     </row>
@@ -2246,16 +2240,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="12">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G4" s="47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>13</v>
@@ -2270,10 +2264,10 @@
         <v>15</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="39"/>
     </row>
@@ -2283,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" s="19">
         <v>43</v>
@@ -2292,28 +2286,28 @@
         <v>19</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G5" s="43">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J5" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="M5" s="42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="39"/>
     </row>
@@ -2332,7 +2326,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G6" s="47">
         <v>20</v>
@@ -2341,16 +2335,16 @@
         <v>29</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J6" s="47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M6" s="46">
         <v>4</v>
@@ -2363,10 +2357,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D7" s="43">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>35</v>
@@ -2381,16 +2375,16 @@
         <v>37</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="J7" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M7" s="42">
         <v>4</v>
@@ -2403,16 +2397,16 @@
         <v>41</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D8" s="47">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G8" s="47">
         <v>17</v>
@@ -2421,16 +2415,16 @@
         <v>45</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="J8" s="47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M8" s="46">
         <v>4</v>
@@ -2443,16 +2437,16 @@
         <v>49</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D9" s="43">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G9" s="43">
         <v>16</v>
@@ -2461,7 +2455,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J9" s="43">
         <v>8</v>
@@ -2470,7 +2464,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M9" s="42">
         <v>4</v>
@@ -2484,7 +2478,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" s="47">
         <v>28</v>
@@ -2493,28 +2487,28 @@
         <v>59</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G10" s="47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J10" s="47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="M10" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="39"/>
     </row>
@@ -2524,10 +2518,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>67</v>
@@ -2542,19 +2536,19 @@
         <v>69</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J11" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="39"/>
     </row>
@@ -2564,16 +2558,16 @@
         <v>73</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D12" s="47">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G12" s="47">
         <v>14</v>
@@ -2582,19 +2576,19 @@
         <v>77</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J12" s="47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M12" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="39"/>
     </row>
@@ -2619,7 +2613,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -2678,16 +2672,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
